--- a/scenarios_and_results/Scenario_A_tilde.xlsx
+++ b/scenarios_and_results/Scenario_A_tilde.xlsx
@@ -634,73 +634,73 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4106.494796845294</v>
+        <v>4106.494796845321</v>
       </c>
       <c r="C2">
-        <v>1.149818543116683</v>
+        <v>1.14981854311669</v>
       </c>
       <c r="D2">
-        <v>7.501816214802138</v>
+        <v>7.501816214802181</v>
       </c>
       <c r="E2">
-        <v>7.501816214802138</v>
+        <v>7.501816214802181</v>
       </c>
       <c r="F2">
-        <v>0.1259743052802315</v>
+        <v>0.1259743052802323</v>
       </c>
       <c r="G2">
-        <v>7.501816214802137E-05</v>
+        <v>7.501816214802182E-05</v>
       </c>
       <c r="H2">
-        <v>0.1260493234423795</v>
+        <v>0.1260493234423803</v>
       </c>
       <c r="I2">
-        <v>7.501816214802137E-05</v>
+        <v>7.501816214802182E-05</v>
       </c>
       <c r="J2">
-        <v>7.501816214802138</v>
+        <v>7.501816214802181</v>
       </c>
       <c r="K2">
-        <v>0.1260493234423795</v>
+        <v>0.1260493234423803</v>
       </c>
       <c r="L2">
-        <v>0.6253873718674495</v>
+        <v>0.6253873718674509</v>
       </c>
       <c r="M2">
-        <v>16.80250753059858</v>
+        <v>16.8025075305986</v>
       </c>
       <c r="N2">
-        <v>0.2085408009469277</v>
+        <v>0.2085408009469276</v>
       </c>
       <c r="O2">
-        <v>0.2085408009469277</v>
+        <v>0.2085408009469276</v>
       </c>
       <c r="P2">
-        <v>0.1260493234425278</v>
+        <v>0.1260493234425286</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>16.80250753061835</v>
+        <v>16.80250753061837</v>
       </c>
       <c r="S2">
-        <v>16.80250753059858</v>
+        <v>16.8025075305986</v>
       </c>
       <c r="T2">
-        <v>16.79250753059858</v>
+        <v>16.7925075305986</v>
       </c>
       <c r="U2">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3.620540189910031</v>
+        <v>3.62012215186678</v>
       </c>
       <c r="X2">
-        <v>3.881276024892105</v>
+        <v>3.881694062935402</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -773,46 +773,46 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>1947.245268054754</v>
+        <v>1947.245268054747</v>
       </c>
       <c r="C4">
-        <v>1.875333500305492</v>
+        <v>1.875333500305485</v>
       </c>
       <c r="D4">
-        <v>4.493654995947129</v>
+        <v>4.493654995947132</v>
       </c>
       <c r="E4">
-        <v>4.493654995947129</v>
+        <v>4.493654995947132</v>
       </c>
       <c r="F4">
-        <v>0.188709996880911</v>
+        <v>0.1887099968809104</v>
       </c>
       <c r="G4">
-        <v>0.005482259095055497</v>
+        <v>0.005482259095055501</v>
       </c>
       <c r="H4">
-        <v>0.1941922559759665</v>
+        <v>0.1941922559759659</v>
       </c>
       <c r="I4">
-        <v>0.005482259095055497</v>
+        <v>0.005482259095055501</v>
       </c>
       <c r="J4">
-        <v>4.493654995947129</v>
+        <v>4.493654995947132</v>
       </c>
       <c r="K4">
-        <v>0.1941922559759665</v>
+        <v>0.1941922559759659</v>
       </c>
       <c r="L4">
-        <v>0.3746126281325504</v>
+        <v>0.3746126281325492</v>
       </c>
       <c r="M4">
-        <v>43.21476752245341</v>
+        <v>43.21476752245325</v>
       </c>
       <c r="N4">
-        <v>0.2634359025138545</v>
+        <v>0.2634359025138556</v>
       </c>
       <c r="O4">
-        <v>0.2634359025138545</v>
+        <v>0.2634359025138556</v>
       </c>
       <c r="P4">
         <v>0.1941922559760049</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>43.21476752246194</v>
+        <v>43.21476752246192</v>
       </c>
       <c r="S4">
-        <v>43.21476752245341</v>
+        <v>43.21476752245325</v>
       </c>
       <c r="T4">
-        <v>41.99476752245341</v>
+        <v>41.99476752245324</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.0443779377251</v>
+        <v>3.045332241778297</v>
       </c>
       <c r="X4">
-        <v>1.449277058222029</v>
+        <v>1.448322754168835</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -912,76 +912,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>359.794098524625</v>
+        <v>359.7940985246243</v>
       </c>
       <c r="C6">
-        <v>0.1481776015363816</v>
+        <v>0.1481776015363813</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.279883992247647</v>
+        <v>0.2798839922476387</v>
       </c>
       <c r="F6">
-        <v>0.01654829362243213</v>
+        <v>0.0165482936224321</v>
       </c>
       <c r="G6">
-        <v>0.001259477965114412</v>
+        <v>0.001259477965114375</v>
       </c>
       <c r="H6">
-        <v>0.01780777158754654</v>
+        <v>0.01780777158754647</v>
       </c>
       <c r="I6">
-        <v>5.849869921803474E-17</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.257722033187747E-15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01654829362243219</v>
+        <v>0.0165482936224321</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.315735368051864E+16</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.990492761097489E-16</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.08880142158124849</v>
+        <v>0.08880142158124603</v>
       </c>
       <c r="P6">
-        <v>0.06297301637391962</v>
+        <v>0.06297301637391818</v>
       </c>
       <c r="Q6">
-        <v>0.04516524478641315</v>
+        <v>0.0451652447864118</v>
       </c>
       <c r="R6">
-        <v>224.9968491166862</v>
+        <v>224.9968491166878</v>
       </c>
       <c r="S6">
-        <v>224.9968491168294</v>
+        <v>224.996849116831</v>
       </c>
       <c r="T6">
-        <v>59.12554515725881</v>
+        <v>59.12554515726045</v>
       </c>
       <c r="U6">
-        <v>4.500000000000001</v>
+        <v>4.500000000000002</v>
       </c>
       <c r="V6">
         <v>161.3713039595706</v>
       </c>
       <c r="W6">
-        <v>0.279883992247647</v>
+        <v>0.2798839922476387</v>
       </c>
       <c r="X6">
-        <v>4.697229379375638E-17</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.2798839922476458</v>
+        <v>0.2798839922476387</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1051,25 +1051,25 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.7113390484714043</v>
+        <v>0.7113390484750119</v>
       </c>
       <c r="C8">
-        <v>0.0005690712387771234</v>
+        <v>0.0005690712387800095</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.001008604055027787</v>
+        <v>0.001008604055032903</v>
       </c>
       <c r="F8">
-        <v>0.0001132619576860222</v>
+        <v>0.0001132619576865966</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0001132619576860222</v>
+        <v>0.0001132619576865966</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0001132619576860222</v>
+        <v>0.0001132619576865966</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1090,37 +1090,37 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.161860155788585</v>
+        <v>0.1618601557885851</v>
       </c>
       <c r="P8">
-        <v>0.000194817762418087</v>
+        <v>0.000194817762419071</v>
       </c>
       <c r="Q8">
-        <v>8.155580473210777E-05</v>
+        <v>8.15558047325222E-05</v>
       </c>
       <c r="R8">
-        <v>193.1558389508158</v>
+        <v>193.1558389508116</v>
       </c>
       <c r="S8">
-        <v>193.1558389508583</v>
+        <v>193.155838950859</v>
       </c>
       <c r="T8">
-        <v>112.2957587979376</v>
+        <v>112.2957587979375</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>80.86008015292074</v>
+        <v>80.86008015292148</v>
       </c>
       <c r="W8">
-        <v>0.001008604055027787</v>
+        <v>0.001008604055032903</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.001008604055027787</v>
+        <v>0.001008604055032903</v>
       </c>
     </row>
   </sheetData>
@@ -1215,76 +1215,76 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>0.4174797598523242</v>
+        <v>0.4174797598523303</v>
       </c>
       <c r="C2">
-        <v>0.3482516906964863</v>
+        <v>0.3482516906964913</v>
       </c>
       <c r="D2">
-        <v>0.3482516906963249</v>
+        <v>0.3482516906963299</v>
       </c>
       <c r="E2">
-        <v>228.3793938594518</v>
+        <v>228.3793938594515</v>
       </c>
       <c r="F2">
-        <v>1.572088389437268</v>
+        <v>1.572088389437293</v>
       </c>
       <c r="G2">
-        <v>4.514230458706165</v>
+        <v>4.514230458706171</v>
       </c>
       <c r="H2">
-        <v>0.3590325934731651</v>
+        <v>0.3590325934731703</v>
       </c>
       <c r="I2">
-        <v>0.358232854612179</v>
+        <v>0.3581523563945123</v>
       </c>
       <c r="J2">
-        <v>0.03089853515016538</v>
+        <v>0.03089853515016586</v>
       </c>
       <c r="K2">
-        <v>0.001113001039766812</v>
+        <v>0.001113001039766828</v>
       </c>
       <c r="L2">
-        <v>0.03201153618993219</v>
+        <v>0.03201153618993269</v>
       </c>
       <c r="M2">
-        <v>0.0104939181410186</v>
+        <v>0.01049391814101863</v>
       </c>
       <c r="N2">
-        <v>0.0425054543308564</v>
+        <v>0.04250545433085695</v>
       </c>
       <c r="O2">
-        <v>0.3590325934731651</v>
+        <v>0.3590325934731703</v>
       </c>
       <c r="P2">
-        <v>118.3888457584499</v>
+        <v>118.3888457584496</v>
       </c>
       <c r="Q2">
-        <v>0.1368478836014964</v>
+        <v>0.1368478836014965</v>
       </c>
       <c r="R2">
         <v>0.117689179897396</v>
       </c>
       <c r="S2">
-        <v>0.2159496420080083</v>
+        <v>0.2159496420080117</v>
       </c>
       <c r="T2">
-        <v>0.03405901535011636</v>
+        <v>0.03405901535011685</v>
       </c>
       <c r="U2">
-        <v>0.181890626657892</v>
+        <v>0.1818906266578948</v>
       </c>
       <c r="V2">
-        <v>118.388845758187</v>
+        <v>118.3888457581868</v>
       </c>
       <c r="W2">
-        <v>86.06052963398936</v>
+        <v>86.06052963398945</v>
       </c>
       <c r="X2">
         <v>3.100000000000001</v>
       </c>
       <c r="Y2">
-        <v>29.22831612446056</v>
+        <v>29.2283161244602</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1348,76 +1348,76 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>1.864951183590133</v>
+        <v>1.864951183590112</v>
       </c>
       <c r="C4">
-        <v>0.6707623328551577</v>
+        <v>0.6707623328551502</v>
       </c>
       <c r="D4">
-        <v>0.6707623328554352</v>
+        <v>0.6707623328554275</v>
       </c>
       <c r="E4">
-        <v>150.2238012353015</v>
+        <v>150.2238012353021</v>
       </c>
       <c r="F4">
-        <v>9.708127564170368</v>
+        <v>9.708127564170216</v>
       </c>
       <c r="G4">
-        <v>14.47327479294025</v>
+        <v>14.47327479294019</v>
       </c>
       <c r="H4">
-        <v>1.458391825566881</v>
+        <v>1.458391825566865</v>
       </c>
       <c r="I4">
-        <v>1.455956421450531</v>
+        <v>1.455500653658252</v>
       </c>
       <c r="J4">
-        <v>0.105238241773032</v>
+        <v>0.1052382417730306</v>
       </c>
       <c r="K4">
-        <v>0.00145839182556688</v>
+        <v>0.001458391825566865</v>
       </c>
       <c r="L4">
-        <v>0.1066966335985989</v>
+        <v>0.1066966335985975</v>
       </c>
       <c r="M4">
-        <v>0.02598822749112441</v>
+        <v>0.02598822749112461</v>
       </c>
       <c r="N4">
-        <v>0.1326848610897485</v>
+        <v>0.1326848610897462</v>
       </c>
       <c r="O4">
-        <v>1.458391825566881</v>
+        <v>1.458391825566865</v>
       </c>
       <c r="P4">
-        <v>90.98025562379186</v>
+        <v>90.98025562379205</v>
       </c>
       <c r="Q4">
-        <v>0.3173910643182148</v>
+        <v>0.317391064318215</v>
       </c>
       <c r="R4">
-        <v>0.2481998122966387</v>
+        <v>0.2481998122966388</v>
       </c>
       <c r="S4">
-        <v>1.228736577428993</v>
+        <v>1.228736577428977</v>
       </c>
       <c r="T4">
-        <v>0.7132350037715464</v>
+        <v>0.7132350037715383</v>
       </c>
       <c r="U4">
-        <v>0.5155015736574465</v>
+        <v>0.5155015736574384</v>
       </c>
       <c r="V4">
-        <v>90.98025562380914</v>
+        <v>90.98025562380859</v>
       </c>
       <c r="W4">
-        <v>72.16047150574614</v>
+        <v>72.16047150574599</v>
       </c>
       <c r="X4">
         <v>0.9999999999999998</v>
       </c>
       <c r="Y4">
-        <v>17.81978411804572</v>
+        <v>17.81978411804606</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1425,13 +1425,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>2.906077814758567</v>
+        <v>2.906077814758613</v>
       </c>
       <c r="C5">
-        <v>0.6824420069268781</v>
+        <v>0.6824420069268987</v>
       </c>
       <c r="D5">
-        <v>0.5050070851258898</v>
+        <v>0.5050070851259051</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1449,52 +1449,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03588518515639929</v>
+        <v>0.03588518515640037</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03588518515639929</v>
+        <v>0.03588518515640037</v>
       </c>
       <c r="M5">
-        <v>0.0305013953951362</v>
+        <v>0.03050139539513732</v>
       </c>
       <c r="N5">
-        <v>0.06638658055152337</v>
+        <v>0.06638658055152669</v>
       </c>
       <c r="O5">
-        <v>2.15049758292134</v>
+        <v>2.150497582921373</v>
       </c>
       <c r="P5">
-        <v>30.87033488377734</v>
+        <v>30.87033488377789</v>
       </c>
       <c r="Q5">
-        <v>0.4861131633360956</v>
+        <v>0.4861131633360886</v>
       </c>
       <c r="R5">
-        <v>0.4861131633360956</v>
+        <v>0.4861131633360883</v>
       </c>
       <c r="S5">
-        <v>0.3070989031170951</v>
+        <v>0.3070989031171044</v>
       </c>
       <c r="T5">
-        <v>0.3070989031170951</v>
+        <v>0.3070989031171044</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>30.8703348837717</v>
+        <v>30.87033488377277</v>
       </c>
       <c r="W5">
-        <v>16.68692187398375</v>
+        <v>16.686921873984</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>14.18341300979359</v>
+        <v>14.18341300979389</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1502,22 +1502,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.04136339196766754</v>
+        <v>0.04136339196766894</v>
       </c>
       <c r="C6">
-        <v>0.3164504689207498</v>
+        <v>0.3164504689207642</v>
       </c>
       <c r="D6">
-        <v>0.279944732114076</v>
+        <v>0.2799447321140858</v>
       </c>
       <c r="E6">
-        <v>27.07100802997581</v>
+        <v>27.07100802997629</v>
       </c>
       <c r="F6">
-        <v>30.55918118886872</v>
+        <v>30.55918118886912</v>
       </c>
       <c r="G6">
-        <v>109.1614796895553</v>
+        <v>109.1614796895529</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1526,52 +1526,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01092248307950147</v>
+        <v>0.01092248307950162</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01092248307950147</v>
+        <v>0.01092248307950162</v>
       </c>
       <c r="M6">
-        <v>0.02999546654220114</v>
+        <v>0.02999546654220278</v>
       </c>
       <c r="N6">
-        <v>0.04091794962171365</v>
+        <v>0.04091794962171508</v>
       </c>
       <c r="O6">
-        <v>0.8272678393533507</v>
+        <v>0.8272678393533764</v>
       </c>
       <c r="P6">
-        <v>49.46155002675661</v>
+        <v>49.46155002675724</v>
       </c>
       <c r="Q6">
-        <v>0.3133470356325485</v>
+        <v>0.3133470356325447</v>
       </c>
       <c r="R6">
-        <v>0.3373414718310495</v>
+        <v>0.3373414718310482</v>
       </c>
       <c r="S6">
-        <v>0.08437779632798471</v>
+        <v>0.08437779632798591</v>
       </c>
       <c r="T6">
-        <v>0.001868007118039186</v>
+        <v>0.001868007118039271</v>
       </c>
       <c r="U6">
-        <v>0.08250978920994553</v>
+        <v>0.08250978920994663</v>
       </c>
       <c r="V6">
-        <v>49.46155002676997</v>
+        <v>49.46155002677015</v>
       </c>
       <c r="W6">
-        <v>13.20307953472388</v>
+        <v>13.20307953472366</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>36.25847049203274</v>
+        <v>36.25847049203359</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1285220540171332</v>
+        <v>0.1285220540171358</v>
       </c>
       <c r="D7">
-        <v>0.8367304616851745</v>
+        <v>0.8367304616851728</v>
       </c>
       <c r="E7">
-        <v>2.899965867847739</v>
+        <v>2.900418043012699</v>
       </c>
       <c r="F7">
-        <v>224.4485055647068</v>
+        <v>224.4135140433089</v>
       </c>
       <c r="G7">
-        <v>268.2446926966991</v>
+        <v>268.2028733498487</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006352201084171029</v>
+        <v>0.006352201084170811</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.006352201084171029</v>
+        <v>0.006352201084170811</v>
       </c>
       <c r="M7">
-        <v>0.03881304370445623</v>
+        <v>0.03881304370445822</v>
       </c>
       <c r="N7">
-        <v>0.04516524478641295</v>
+        <v>0.04516524478641388</v>
       </c>
       <c r="O7">
-        <v>0.6508930052270833</v>
+        <v>0.6508930052270967</v>
       </c>
       <c r="P7">
-        <v>69.38966070601731</v>
+        <v>69.3896607060186</v>
       </c>
       <c r="Q7">
-        <v>0.7411982129275644</v>
+        <v>0.7411982129275657</v>
       </c>
       <c r="R7">
-        <v>0.0888014215812481</v>
+        <v>0.08880142158125011</v>
       </c>
       <c r="S7">
-        <v>0.04817667552650985</v>
+        <v>0.04817667552651084</v>
       </c>
       <c r="T7">
-        <v>0.04817667552650985</v>
+        <v>0.04817667552651084</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>69.38966070261534</v>
       </c>
       <c r="W7">
-        <v>9.759209321899036</v>
+        <v>9.759209321898501</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>59.63045138411828</v>
+        <v>59.6304513841201</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1656,13 +1656,13 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.0360857391585758</v>
+        <v>0.0360857391585766</v>
       </c>
       <c r="C8">
-        <v>0.00522497417517149</v>
+        <v>0.0052249741751715</v>
       </c>
       <c r="D8">
-        <v>0.01866062205418389</v>
+        <v>0.01866062205418393</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1680,52 +1680,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01129730546365892</v>
+        <v>0.01129730546365894</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01129730546365892</v>
+        <v>0.01129730546365894</v>
       </c>
       <c r="M8">
-        <v>0.00496963352225525</v>
+        <v>0.004969633522254198</v>
       </c>
       <c r="N8">
-        <v>0.01626693898590914</v>
+        <v>0.01626693898590974</v>
       </c>
       <c r="O8">
-        <v>0.1288776398520563</v>
+        <v>0.1288776398520593</v>
       </c>
       <c r="P8">
-        <v>126.2200254798864</v>
+        <v>126.2200254798754</v>
       </c>
       <c r="Q8">
-        <v>0.7884013352354174</v>
+        <v>0.7884013352354334</v>
       </c>
       <c r="R8">
-        <v>0.7884013352354168</v>
+        <v>0.7884013352354337</v>
       </c>
       <c r="S8">
-        <v>0.02089989670068595</v>
+        <v>0.020899896700686</v>
       </c>
       <c r="T8">
-        <v>0.02089989670068595</v>
+        <v>0.020899896700686</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>126.2200254798473</v>
+        <v>126.220025479849</v>
       </c>
       <c r="W8">
-        <v>87.65915853694662</v>
+        <v>87.65915853694476</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>38.56086694293972</v>
+        <v>38.56086694293067</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1733,13 +1733,13 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.06783033676420405</v>
+        <v>0.06783033676420556</v>
       </c>
       <c r="C9">
-        <v>0.0098213800285126</v>
+        <v>0.009821380028512619</v>
       </c>
       <c r="D9">
-        <v>0.02799093308126091</v>
+        <v>0.02799093308126097</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1757,52 +1757,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002015250506100076</v>
+        <v>0.00201525050610008</v>
       </c>
       <c r="K9">
-        <v>0.0006031473545073025</v>
+        <v>0.000603147354507316</v>
       </c>
       <c r="L9">
-        <v>0.002618397860607379</v>
+        <v>0.002618397860607396</v>
       </c>
       <c r="M9">
-        <v>0.001534749126401463</v>
+        <v>0.001534749126400771</v>
       </c>
       <c r="N9">
-        <v>0.004153146987007021</v>
+        <v>0.004153146987006337</v>
       </c>
       <c r="O9">
-        <v>0.1933164597779815</v>
+        <v>0.1933164597779859</v>
       </c>
       <c r="P9">
-        <v>21.4836697908632</v>
+        <v>21.48366979085922</v>
       </c>
       <c r="Q9">
-        <v>0.7884013352354174</v>
+        <v>0.7884013352354335</v>
       </c>
       <c r="R9">
-        <v>0.7884013352354173</v>
+        <v>0.7884013352354334</v>
       </c>
       <c r="S9">
-        <v>0.01959365315688264</v>
+        <v>0.01959365315688268</v>
       </c>
       <c r="T9">
-        <v>0.01959365315688264</v>
+        <v>0.01959365315688268</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>21.48366979085378</v>
+        <v>21.48366979084975</v>
       </c>
       <c r="W9">
-        <v>10.42461934392206</v>
+        <v>10.42461934392184</v>
       </c>
       <c r="X9">
         <v>3.120000000000001</v>
       </c>
       <c r="Y9">
-        <v>7.939050446941142</v>
+        <v>7.939050446937382</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01270591557193798</v>
+        <v>0.0127059155719379</v>
       </c>
       <c r="D10">
-        <v>0.01984902160751124</v>
+        <v>0.01984902160751164</v>
       </c>
       <c r="E10">
-        <v>10.468197109807</v>
+        <v>10.44206159997712</v>
       </c>
       <c r="F10">
-        <v>1.865787298712211</v>
+        <v>1.865787298711912</v>
       </c>
       <c r="G10">
-        <v>93.99895549542664</v>
+        <v>93.99895549540969</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1834,52 +1834,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0004890556493609805</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0004890556493609805</v>
       </c>
       <c r="M10">
-        <v>0.001719815539785405</v>
+        <v>0.001712593060420728</v>
       </c>
       <c r="N10">
-        <v>0.00220887118914681</v>
+        <v>0.002201648709782046</v>
       </c>
       <c r="O10">
-        <v>0.01953142920789377</v>
+        <v>0.0194826659056047</v>
       </c>
       <c r="P10">
-        <v>88.05374770476749</v>
+        <v>113.0055157979354</v>
       </c>
       <c r="Q10">
-        <v>0.1754785157950245</v>
+        <v>0.1750404059250383</v>
       </c>
       <c r="R10">
-        <v>0.1123287208038929</v>
+        <v>0.1120482743854538</v>
       </c>
       <c r="S10">
-        <v>0.00471702747498525</v>
+        <v>0.004717027474984495</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.00471702747498525</v>
+        <v>0.004717027474984495</v>
       </c>
       <c r="V10">
-        <v>113.093167204276</v>
+        <v>113.0055157979527</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>25.1020908396469</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>88.05374770476749</v>
+        <v>87.90342495828848</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios_and_results/Scenario_A_tilde.xlsx
+++ b/scenarios_and_results/Scenario_A_tilde.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigi2014/Dropbox/pypsa/github/single_district/scenarios_and_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC80B5B3-1BE9-0C40-B717-379A56284379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="25140" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_gen_results" sheetId="1" r:id="rId1"/>
     <sheet name="df_storage_results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>generator_installed_capacity</t>
   </si>
@@ -192,13 +209,25 @@
   </si>
   <si>
     <t>CO2_storage</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>H/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,22 +279,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -307,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +381,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +433,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,14 +626,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,66 +709,66 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4106.494796845321</v>
+        <v>4106.4947968453207</v>
       </c>
       <c r="C2">
-        <v>1.14981854311669</v>
+        <v>1.1498185431166901</v>
       </c>
       <c r="D2">
-        <v>7.501816214802181</v>
+        <v>7.5018162148021812</v>
       </c>
       <c r="E2">
-        <v>7.501816214802181</v>
+        <v>7.5018162148021812</v>
       </c>
       <c r="F2">
-        <v>0.1259743052802323</v>
+        <v>0.12597430528023229</v>
       </c>
       <c r="G2">
-        <v>7.501816214802182E-05</v>
+        <v>7.5018162148021822E-5</v>
       </c>
       <c r="H2">
-        <v>0.1260493234423803</v>
+        <v>0.12604932344238029</v>
       </c>
       <c r="I2">
-        <v>7.501816214802182E-05</v>
+        <v>7.5018162148021822E-5</v>
       </c>
       <c r="J2">
-        <v>7.501816214802181</v>
+        <v>7.5018162148021812</v>
       </c>
       <c r="K2">
-        <v>0.1260493234423803</v>
+        <v>0.12604932344238029</v>
       </c>
       <c r="L2">
-        <v>0.6253873718674509</v>
+        <v>0.62538737186745086</v>
       </c>
       <c r="M2">
         <v>16.8025075305986</v>
       </c>
       <c r="N2">
-        <v>0.2085408009469276</v>
+        <v>0.20854080094692759</v>
       </c>
       <c r="O2">
-        <v>0.2085408009469276</v>
+        <v>0.20854080094692759</v>
       </c>
       <c r="P2">
-        <v>0.1260493234425286</v>
+        <v>0.12604932344252859</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>16.80250753061837</v>
+        <v>16.802507530618371</v>
       </c>
       <c r="S2">
         <v>16.8025075305986</v>
       </c>
       <c r="T2">
-        <v>16.7925075305986</v>
+        <v>16.792507530598598</v>
       </c>
       <c r="U2">
         <v>0.01</v>
@@ -697,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3.62012215186678</v>
+        <v>3.6201221518667799</v>
       </c>
       <c r="X2">
-        <v>3.881694062935402</v>
+        <v>3.8816940629354022</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -768,36 +848,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4">
-        <v>1947.245268054747</v>
+        <v>1947.2452680547469</v>
       </c>
       <c r="C4">
         <v>1.875333500305485</v>
       </c>
       <c r="D4">
-        <v>4.493654995947132</v>
+        <v>4.4936549959471321</v>
       </c>
       <c r="E4">
-        <v>4.493654995947132</v>
+        <v>4.4936549959471321</v>
       </c>
       <c r="F4">
-        <v>0.1887099968809104</v>
+        <v>0.18870999688091039</v>
       </c>
       <c r="G4">
-        <v>0.005482259095055501</v>
+        <v>5.4822590950555014E-3</v>
       </c>
       <c r="H4">
         <v>0.1941922559759659</v>
       </c>
       <c r="I4">
-        <v>0.005482259095055501</v>
+        <v>5.4822590950555014E-3</v>
       </c>
       <c r="J4">
-        <v>4.493654995947132</v>
+        <v>4.4936549959471321</v>
       </c>
       <c r="K4">
         <v>0.1941922559759659</v>
@@ -806,13 +886,13 @@
         <v>0.3746126281325492</v>
       </c>
       <c r="M4">
-        <v>43.21476752245325</v>
+        <v>43.214767522453251</v>
       </c>
       <c r="N4">
-        <v>0.2634359025138556</v>
+        <v>0.26343590251385562</v>
       </c>
       <c r="O4">
-        <v>0.2634359025138556</v>
+        <v>0.26343590251385562</v>
       </c>
       <c r="P4">
         <v>0.1941922559760049</v>
@@ -821,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>43.21476752246192</v>
+        <v>43.214767522461919</v>
       </c>
       <c r="S4">
-        <v>43.21476752245325</v>
+        <v>43.214767522453251</v>
       </c>
       <c r="T4">
-        <v>41.99476752245324</v>
+        <v>41.994767522453238</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.045332241778297</v>
+        <v>3.0453322417782971</v>
       </c>
       <c r="X4">
         <v>1.448322754168835</v>
@@ -845,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -907,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -915,22 +995,22 @@
         <v>359.7940985246243</v>
       </c>
       <c r="C6">
-        <v>0.1481776015363813</v>
+        <v>0.14817760153638129</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2798839922476387</v>
+        <v>0.27988399224763871</v>
       </c>
       <c r="F6">
-        <v>0.0165482936224321</v>
+        <v>1.6548293622432101E-2</v>
       </c>
       <c r="G6">
-        <v>0.001259477965114375</v>
+        <v>1.2594779651143751E-3</v>
       </c>
       <c r="H6">
-        <v>0.01780777158754647</v>
+        <v>1.780777158754647E-2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -939,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0165482936224321</v>
+        <v>1.6548293622432101E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -951,40 +1031,40 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.08880142158124603</v>
+        <v>8.8801421581246029E-2</v>
       </c>
       <c r="P6">
-        <v>0.06297301637391818</v>
+        <v>6.2973016373918181E-2</v>
       </c>
       <c r="Q6">
-        <v>0.0451652447864118</v>
+        <v>4.5165244786411797E-2</v>
       </c>
       <c r="R6">
         <v>224.9968491166878</v>
       </c>
       <c r="S6">
-        <v>224.996849116831</v>
+        <v>224.99684911683099</v>
       </c>
       <c r="T6">
-        <v>59.12554515726045</v>
+        <v>59.125545157260447</v>
       </c>
       <c r="U6">
-        <v>4.500000000000002</v>
+        <v>4.5000000000000018</v>
       </c>
       <c r="V6">
-        <v>161.3713039595706</v>
+        <v>161.37130395957061</v>
       </c>
       <c r="W6">
-        <v>0.2798839922476387</v>
+        <v>0.27988399224763871</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.2798839922476387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>0.27988399224763871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1046,30 +1126,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.7113390484750119</v>
+        <v>0.71133904847501195</v>
       </c>
       <c r="C8">
-        <v>0.0005690712387800095</v>
+        <v>5.6907123878000953E-4</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.001008604055032903</v>
+        <v>1.0086040550329029E-3</v>
       </c>
       <c r="F8">
-        <v>0.0001132619576865966</v>
+        <v>1.132619576865966E-4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0001132619576865966</v>
+        <v>1.132619576865966E-4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1078,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0001132619576865966</v>
+        <v>1.132619576865966E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1090,53 +1170,124 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1618601557885851</v>
+        <v>0.16186015578858509</v>
       </c>
       <c r="P8">
-        <v>0.000194817762419071</v>
+        <v>1.9481776241907101E-4</v>
       </c>
       <c r="Q8">
-        <v>8.15558047325222E-05</v>
+        <v>8.1555804732522197E-5</v>
       </c>
       <c r="R8">
-        <v>193.1558389508116</v>
+        <v>193.15583895081161</v>
       </c>
       <c r="S8">
-        <v>193.155838950859</v>
+        <v>193.15583895085899</v>
       </c>
       <c r="T8">
-        <v>112.2957587979375</v>
+        <v>112.29575879793749</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>80.86008015292148</v>
+        <v>80.860080152921483</v>
       </c>
       <c r="W8">
-        <v>0.001008604055032903</v>
+        <v>1.0086040550329029E-3</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.001008604055032903</v>
+        <v>1.0086040550329029E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(B2:B8)</f>
+        <v>6414.2455024731662</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:E10" si="0">SUM(C2:C8)</f>
+        <v>3.173898716197336</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>11.995471210749313</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>12.276363807051984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>15744.08807485613</v>
+      </c>
+      <c r="C13">
+        <v>5.9427605027337496</v>
+      </c>
+      <c r="D13">
+        <v>15.25695371693444</v>
+      </c>
+      <c r="E13">
+        <v>16.473599781625929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <f>B13/B10</f>
+        <v>2.4545502770022787</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:E15" si="1">C13/C10</f>
+        <v>1.8723850488379166</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.2718928209558342</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.3418956981515082</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1210,57 +1361,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>0.4174797598523303</v>
+        <v>0.41747975985233032</v>
       </c>
       <c r="C2">
-        <v>0.3482516906964913</v>
+        <v>0.34825169069649131</v>
       </c>
       <c r="D2">
-        <v>0.3482516906963299</v>
+        <v>0.34825169069632989</v>
       </c>
       <c r="E2">
-        <v>228.3793938594515</v>
+        <v>228.37939385945151</v>
       </c>
       <c r="F2">
         <v>1.572088389437293</v>
       </c>
       <c r="G2">
-        <v>4.514230458706171</v>
+        <v>4.5142304587061712</v>
       </c>
       <c r="H2">
-        <v>0.3590325934731703</v>
+        <v>0.35903259347317029</v>
       </c>
       <c r="I2">
-        <v>0.3581523563945123</v>
+        <v>0.35815235639451232</v>
       </c>
       <c r="J2">
-        <v>0.03089853515016586</v>
+        <v>3.089853515016586E-2</v>
       </c>
       <c r="K2">
-        <v>0.001113001039766828</v>
+        <v>1.113001039766828E-3</v>
       </c>
       <c r="L2">
-        <v>0.03201153618993269</v>
+        <v>3.2011536189932688E-2</v>
       </c>
       <c r="M2">
-        <v>0.01049391814101863</v>
+        <v>1.049391814101863E-2</v>
       </c>
       <c r="N2">
-        <v>0.04250545433085695</v>
+        <v>4.2505454330856951E-2</v>
       </c>
       <c r="O2">
-        <v>0.3590325934731703</v>
+        <v>0.35903259347317029</v>
       </c>
       <c r="P2">
-        <v>118.3888457584496</v>
+        <v>118.38884575844961</v>
       </c>
       <c r="Q2">
-        <v>0.1368478836014965</v>
+        <v>0.13684788360149649</v>
       </c>
       <c r="R2">
         <v>0.117689179897396</v>
@@ -1269,16 +1420,16 @@
         <v>0.2159496420080117</v>
       </c>
       <c r="T2">
-        <v>0.03405901535011685</v>
+        <v>3.405901535011685E-2</v>
       </c>
       <c r="U2">
-        <v>0.1818906266578948</v>
+        <v>0.18189062665789479</v>
       </c>
       <c r="V2">
         <v>118.3888457581868</v>
       </c>
       <c r="W2">
-        <v>86.06052963398945</v>
+        <v>86.060529633989447</v>
       </c>
       <c r="X2">
         <v>3.100000000000001</v>
@@ -1287,7 +1438,7 @@
         <v>29.2283161244602</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1307,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1325,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1343,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1351,87 +1502,87 @@
         <v>1.864951183590112</v>
       </c>
       <c r="C4">
-        <v>0.6707623328551502</v>
+        <v>0.67076233285515019</v>
       </c>
       <c r="D4">
-        <v>0.6707623328554275</v>
+        <v>0.67076233285542752</v>
       </c>
       <c r="E4">
-        <v>150.2238012353021</v>
+        <v>150.22380123530209</v>
       </c>
       <c r="F4">
-        <v>9.708127564170216</v>
+        <v>9.7081275641702156</v>
       </c>
       <c r="G4">
         <v>14.47327479294019</v>
       </c>
       <c r="H4">
-        <v>1.458391825566865</v>
+        <v>1.4583918255668651</v>
       </c>
       <c r="I4">
         <v>1.455500653658252</v>
       </c>
       <c r="J4">
-        <v>0.1052382417730306</v>
+        <v>0.10523824177303059</v>
       </c>
       <c r="K4">
-        <v>0.001458391825566865</v>
+        <v>1.4583918255668649E-3</v>
       </c>
       <c r="L4">
         <v>0.1066966335985975</v>
       </c>
       <c r="M4">
-        <v>0.02598822749112461</v>
+        <v>2.5988227491124609E-2</v>
       </c>
       <c r="N4">
         <v>0.1326848610897462</v>
       </c>
       <c r="O4">
-        <v>1.458391825566865</v>
+        <v>1.4583918255668651</v>
       </c>
       <c r="P4">
-        <v>90.98025562379205</v>
+        <v>90.980255623792047</v>
       </c>
       <c r="Q4">
-        <v>0.317391064318215</v>
+        <v>0.31739106431821501</v>
       </c>
       <c r="R4">
-        <v>0.2481998122966388</v>
+        <v>0.24819981229663879</v>
       </c>
       <c r="S4">
-        <v>1.228736577428977</v>
+        <v>1.2287365774289769</v>
       </c>
       <c r="T4">
-        <v>0.7132350037715383</v>
+        <v>0.71323500377153826</v>
       </c>
       <c r="U4">
-        <v>0.5155015736574384</v>
+        <v>0.51550157365743843</v>
       </c>
       <c r="V4">
-        <v>90.98025562380859</v>
+        <v>90.980255623808588</v>
       </c>
       <c r="W4">
-        <v>72.16047150574599</v>
+        <v>72.160471505745988</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="Y4">
-        <v>17.81978411804606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>17.819784118046059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B5">
-        <v>2.906077814758613</v>
+        <v>2.9060778147586128</v>
       </c>
       <c r="C5">
-        <v>0.6824420069268987</v>
+        <v>0.68244200692689871</v>
       </c>
       <c r="D5">
-        <v>0.5050070851259051</v>
+        <v>0.50500708512590509</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1449,37 +1600,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03588518515640037</v>
+        <v>3.5885185156400372E-2</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03588518515640037</v>
+        <v>3.5885185156400372E-2</v>
       </c>
       <c r="M5">
-        <v>0.03050139539513732</v>
+        <v>3.0501395395137319E-2</v>
       </c>
       <c r="N5">
-        <v>0.06638658055152669</v>
+        <v>6.6386580551526686E-2</v>
       </c>
       <c r="O5">
-        <v>2.150497582921373</v>
+        <v>2.1504975829213731</v>
       </c>
       <c r="P5">
         <v>30.87033488377789</v>
       </c>
       <c r="Q5">
-        <v>0.4861131633360886</v>
+        <v>0.48611316333608862</v>
       </c>
       <c r="R5">
-        <v>0.4861131633360883</v>
+        <v>0.48611316333608828</v>
       </c>
       <c r="S5">
-        <v>0.3070989031171044</v>
+        <v>0.30709890311710442</v>
       </c>
       <c r="T5">
-        <v>0.3070989031171044</v>
+        <v>0.30709890311710442</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1488,7 +1639,7 @@
         <v>30.87033488377277</v>
       </c>
       <c r="W5">
-        <v>16.686921873984</v>
+        <v>16.686921873984002</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1497,27 +1648,27 @@
         <v>14.18341300979389</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.04136339196766894</v>
+        <v>4.1363391967668937E-2</v>
       </c>
       <c r="C6">
-        <v>0.3164504689207642</v>
+        <v>0.31645046892076423</v>
       </c>
       <c r="D6">
-        <v>0.2799447321140858</v>
+        <v>0.27994473211408583</v>
       </c>
       <c r="E6">
-        <v>27.07100802997629</v>
+        <v>27.071008029976291</v>
       </c>
       <c r="F6">
-        <v>30.55918118886912</v>
+        <v>30.559181188869118</v>
       </c>
       <c r="G6">
-        <v>109.1614796895529</v>
+        <v>109.16147968955291</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1526,43 +1677,43 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01092248307950162</v>
+        <v>1.0922483079501621E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01092248307950162</v>
+        <v>1.0922483079501621E-2</v>
       </c>
       <c r="M6">
-        <v>0.02999546654220278</v>
+        <v>2.9995466542202781E-2</v>
       </c>
       <c r="N6">
-        <v>0.04091794962171508</v>
+        <v>4.0917949621715077E-2</v>
       </c>
       <c r="O6">
-        <v>0.8272678393533764</v>
+        <v>0.82726783935337644</v>
       </c>
       <c r="P6">
-        <v>49.46155002675724</v>
+        <v>49.461550026757237</v>
       </c>
       <c r="Q6">
-        <v>0.3133470356325447</v>
+        <v>0.31334703563254468</v>
       </c>
       <c r="R6">
-        <v>0.3373414718310482</v>
+        <v>0.33734147183104818</v>
       </c>
       <c r="S6">
-        <v>0.08437779632798591</v>
+        <v>8.4377796327985907E-2</v>
       </c>
       <c r="T6">
-        <v>0.001868007118039271</v>
+        <v>1.8680071180392709E-3</v>
       </c>
       <c r="U6">
-        <v>0.08250978920994663</v>
+        <v>8.250978920994663E-2</v>
       </c>
       <c r="V6">
-        <v>49.46155002677015</v>
+        <v>49.461550026770148</v>
       </c>
       <c r="W6">
         <v>13.20307953472366</v>
@@ -1571,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>36.25847049203359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>36.258470492033588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1582,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1285220540171358</v>
+        <v>0.12852205401713579</v>
       </c>
       <c r="D7">
-        <v>0.8367304616851728</v>
+        <v>0.83673046168517284</v>
       </c>
       <c r="E7">
-        <v>2.900418043012699</v>
+        <v>2.9004180430126989</v>
       </c>
       <c r="F7">
-        <v>224.4135140433089</v>
+        <v>224.41351404330891</v>
       </c>
       <c r="G7">
-        <v>268.2028733498487</v>
+        <v>268.20287334984869</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1603,43 +1754,43 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006352201084170811</v>
+        <v>6.352201084170811E-3</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.006352201084170811</v>
+        <v>6.352201084170811E-3</v>
       </c>
       <c r="M7">
-        <v>0.03881304370445822</v>
+        <v>3.8813043704458219E-2</v>
       </c>
       <c r="N7">
-        <v>0.04516524478641388</v>
+        <v>4.5165244786413879E-2</v>
       </c>
       <c r="O7">
         <v>0.6508930052270967</v>
       </c>
       <c r="P7">
-        <v>69.3896607060186</v>
+        <v>69.389660706018603</v>
       </c>
       <c r="Q7">
-        <v>0.7411982129275657</v>
+        <v>0.74119821292756571</v>
       </c>
       <c r="R7">
-        <v>0.08880142158125011</v>
+        <v>8.8801421581250109E-2</v>
       </c>
       <c r="S7">
-        <v>0.04817667552651084</v>
+        <v>4.8176675526510837E-2</v>
       </c>
       <c r="T7">
-        <v>0.04817667552651084</v>
+        <v>4.8176675526510837E-2</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>69.38966070261534</v>
+        <v>69.389660702615345</v>
       </c>
       <c r="W7">
         <v>9.759209321898501</v>
@@ -1651,18 +1802,18 @@
         <v>59.6304513841201</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.0360857391585766</v>
+        <v>3.6085739158576602E-2</v>
       </c>
       <c r="C8">
-        <v>0.0052249741751715</v>
+        <v>5.2249741751715E-3</v>
       </c>
       <c r="D8">
-        <v>0.01866062205418393</v>
+        <v>1.866062205418393E-2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1680,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01129730546365894</v>
+        <v>1.129730546365894E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01129730546365894</v>
+        <v>1.129730546365894E-2</v>
       </c>
       <c r="M8">
-        <v>0.004969633522254198</v>
+        <v>4.9696335222541984E-3</v>
       </c>
       <c r="N8">
-        <v>0.01626693898590974</v>
+        <v>1.6266938985909741E-2</v>
       </c>
       <c r="O8">
         <v>0.1288776398520593</v>
@@ -1701,16 +1852,16 @@
         <v>126.2200254798754</v>
       </c>
       <c r="Q8">
-        <v>0.7884013352354334</v>
+        <v>0.78840133523543343</v>
       </c>
       <c r="R8">
-        <v>0.7884013352354337</v>
+        <v>0.78840133523543365</v>
       </c>
       <c r="S8">
-        <v>0.020899896700686</v>
+        <v>2.0899896700686E-2</v>
       </c>
       <c r="T8">
-        <v>0.020899896700686</v>
+        <v>2.0899896700686E-2</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1719,27 +1870,27 @@
         <v>126.220025479849</v>
       </c>
       <c r="W8">
-        <v>87.65915853694476</v>
+        <v>87.659158536944759</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>38.56086694293067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>38.560866942930673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.06783033676420556</v>
+        <v>6.7830336764205565E-2</v>
       </c>
       <c r="C9">
-        <v>0.009821380028512619</v>
+        <v>9.8213800285126187E-3</v>
       </c>
       <c r="D9">
-        <v>0.02799093308126097</v>
+        <v>2.7990933081260969E-2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1757,43 +1908,43 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.00201525050610008</v>
+        <v>2.0152505061000799E-3</v>
       </c>
       <c r="K9">
-        <v>0.000603147354507316</v>
+        <v>6.0314735450731603E-4</v>
       </c>
       <c r="L9">
-        <v>0.002618397860607396</v>
+        <v>2.6183978606073958E-3</v>
       </c>
       <c r="M9">
-        <v>0.001534749126400771</v>
+        <v>1.5347491264007709E-3</v>
       </c>
       <c r="N9">
-        <v>0.004153146987006337</v>
+        <v>4.1531469870063368E-3</v>
       </c>
       <c r="O9">
-        <v>0.1933164597779859</v>
+        <v>0.19331645977798589</v>
       </c>
       <c r="P9">
-        <v>21.48366979085922</v>
+        <v>21.483669790859221</v>
       </c>
       <c r="Q9">
-        <v>0.7884013352354335</v>
+        <v>0.78840133523543354</v>
       </c>
       <c r="R9">
-        <v>0.7884013352354334</v>
+        <v>0.78840133523543343</v>
       </c>
       <c r="S9">
-        <v>0.01959365315688268</v>
+        <v>1.959365315688268E-2</v>
       </c>
       <c r="T9">
-        <v>0.01959365315688268</v>
+        <v>1.959365315688268E-2</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>21.48366979084975</v>
+        <v>21.483669790849749</v>
       </c>
       <c r="W9">
         <v>10.42461934392184</v>
@@ -1802,10 +1953,10 @@
         <v>3.120000000000001</v>
       </c>
       <c r="Y9">
-        <v>7.939050446937382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>7.9390504469373822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1813,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0127059155719379</v>
+        <v>1.27059155719379E-2</v>
       </c>
       <c r="D10">
-        <v>0.01984902160751164</v>
+        <v>1.984902160751164E-2</v>
       </c>
       <c r="E10">
-        <v>10.44206159997712</v>
+        <v>10.442061599977119</v>
       </c>
       <c r="F10">
         <v>1.865787298711912</v>
       </c>
       <c r="G10">
-        <v>93.99895549540969</v>
+        <v>93.998955495409689</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1834,52 +1985,147 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0004890556493609805</v>
+        <v>4.8905564936098053E-4</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0004890556493609805</v>
+        <v>4.8905564936098053E-4</v>
       </c>
       <c r="M10">
-        <v>0.001712593060420728</v>
+        <v>1.712593060420728E-3</v>
       </c>
       <c r="N10">
-        <v>0.002201648709782046</v>
+        <v>2.2016487097820461E-3</v>
       </c>
       <c r="O10">
-        <v>0.0194826659056047</v>
+        <v>1.9482665905604699E-2</v>
       </c>
       <c r="P10">
         <v>113.0055157979354</v>
       </c>
       <c r="Q10">
-        <v>0.1750404059250383</v>
+        <v>0.17504040592503831</v>
       </c>
       <c r="R10">
         <v>0.1120482743854538</v>
       </c>
       <c r="S10">
-        <v>0.004717027474984495</v>
+        <v>4.7170274749844948E-3</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.004717027474984495</v>
+        <v>4.7170274749844948E-3</v>
       </c>
       <c r="V10">
         <v>113.0055157979527</v>
       </c>
       <c r="W10">
-        <v>25.1020908396469</v>
+        <v>25.102090839646898</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>87.90342495828848</v>
+        <v>87.903424958288483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B9)</f>
+        <v>5.3337882260915057</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:H13" si="0">SUM(C2:C9)</f>
+        <v>2.1614749076201241</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.6873478576123659</v>
+      </c>
+      <c r="F13">
+        <f>F2+F4</f>
+        <v>11.28021595360751</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.8174244190400355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>11.29218962834033</v>
+      </c>
+      <c r="C16">
+        <v>8.5858219974725927</v>
+      </c>
+      <c r="D16">
+        <v>7.8892326426261219</v>
+      </c>
+      <c r="F16">
+        <v>14.619970197451501</v>
+      </c>
+      <c r="H16">
+        <v>3.5785898467128558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <f>B16/B13</f>
+        <v>2.1171049823654178</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:H18" si="1">C16/C13</f>
+        <v>3.9722052600304987</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.9356946181263956</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.2960718356438832</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.969044659696533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>F7</f>
+        <v>224.41351404330891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>2103.9544333974959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>F23/F22</f>
+        <v>9.3753464106954798</v>
       </c>
     </row>
   </sheetData>
